--- a/Data/EC/NIT-9010916544.xlsx
+++ b/Data/EC/NIT-9010916544.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F58328D-6D20-4B9B-B3F8-823F45037FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1FD3D8A-DBCC-4B34-8F7A-78BFD7B63D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{491496DE-5A05-49E7-BA3D-5098FC6EC5F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745BEEA9-4AA9-40D9-831F-79177AE910F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,7 +71,31 @@
     <t>CARLOS ANDRES ACOSTA TERAN</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1047455386</t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA PALACIO VEGA</t>
+  </si>
+  <si>
+    <t>1048936436</t>
+  </si>
+  <si>
+    <t>ALFONSO LUIS RODRIGUEZ PADILLA</t>
+  </si>
+  <si>
+    <t>72284047</t>
+  </si>
+  <si>
+    <t>ELKIN ALBERTO NUÑEZ SORACA</t>
+  </si>
+  <si>
+    <t>1235046610</t>
+  </si>
+  <si>
+    <t>DAIRIS MILETH PINEDA ROJAS</t>
   </si>
   <si>
     <t>1050969759</t>
@@ -80,28 +104,16 @@
     <t>EDINSON MANUEL GOMEZ OLIVARES</t>
   </si>
   <si>
-    <t>1048936436</t>
-  </si>
-  <si>
-    <t>ALFONSO LUIS RODRIGUEZ PADILLA</t>
+    <t>85290132</t>
+  </si>
+  <si>
+    <t>OSCAR LUIS TORRES RODRIGUEZ</t>
   </si>
   <si>
     <t>1235046104</t>
   </si>
   <si>
     <t>SEBASTIAN TAPIA PALACIO</t>
-  </si>
-  <si>
-    <t>85290132</t>
-  </si>
-  <si>
-    <t>OSCAR LUIS TORRES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1235046610</t>
-  </si>
-  <si>
-    <t>DAIRIS MILETH PINEDA ROJAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -145,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A292DFAC-0EB7-22A1-48C5-E41DF11292D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4316B35F-71E2-9D27-4697-BBE7A05CC4D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,32 +878,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891959B9-83E6-4707-882E-1B47CFC2A78C}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2045CC-7758-439C-908F-B2FC74BB0AC0}">
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -900,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -911,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -922,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -933,10 +945,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -949,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,15 +977,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>347860</v>
+        <v>416188</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,17 +993,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1001,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1021,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1047,13 +1059,13 @@
         <v>63160</v>
       </c>
       <c r="G16" s="18">
-        <v>1579000</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1070,13 +1082,13 @@
         <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1111,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,13 +1128,13 @@
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1139,63 +1151,109 @@
         <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18">
         <v>56940</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G22" s="18">
         <v>1423500</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010916544.xlsx
+++ b/Data/EC/NIT-9010916544.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1FD3D8A-DBCC-4B34-8F7A-78BFD7B63D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E4D228-30F4-4AF1-86FD-42693CEF5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745BEEA9-4AA9-40D9-831F-79177AE910F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9557B361-D673-44D0-9988-80C5233D34BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,13 +71,7 @@
     <t>CARLOS ANDRES ACOSTA TERAN</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1047455386</t>
-  </si>
-  <si>
-    <t>MARIA GRACIELA PALACIO VEGA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1048936436</t>
@@ -86,22 +80,10 @@
     <t>ALFONSO LUIS RODRIGUEZ PADILLA</t>
   </si>
   <si>
-    <t>72284047</t>
-  </si>
-  <si>
-    <t>ELKIN ALBERTO NUÑEZ SORACA</t>
-  </si>
-  <si>
     <t>1235046610</t>
   </si>
   <si>
     <t>DAIRIS MILETH PINEDA ROJAS</t>
-  </si>
-  <si>
-    <t>1050969759</t>
-  </si>
-  <si>
-    <t>EDINSON MANUEL GOMEZ OLIVARES</t>
   </si>
   <si>
     <t>85290132</t>
@@ -157,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4316B35F-71E2-9D27-4697-BBE7A05CC4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60567624-96F8-3201-AEE0-B08FE53CB9DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,32 +860,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2045CC-7758-439C-908F-B2FC74BB0AC0}">
-  <dimension ref="B2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60642F20-014B-46F3-AC50-6CD87696E34F}">
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +894,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +905,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +916,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +927,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +943,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +959,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>416188</v>
+        <v>290920</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,17 +975,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1013,7 +995,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1059,13 +1041,13 @@
         <v>63160</v>
       </c>
       <c r="G16" s="18">
-        <v>900000</v>
+        <v>1579000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1082,13 +1064,13 @@
         <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1093,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,132 +1110,63 @@
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="24">
         <v>56940</v>
       </c>
-      <c r="G20" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="G20" s="24">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="H26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010916544.xlsx
+++ b/Data/EC/NIT-9010916544.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E4D228-30F4-4AF1-86FD-42693CEF5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB90865B-503A-4FC7-B775-D8C67D3523DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9557B361-D673-44D0-9988-80C5233D34BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B9C2C0D-B120-4CE9-A369-68F537871E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,19 @@
     <t>CC</t>
   </si>
   <si>
+    <t>92523071</t>
+  </si>
+  <si>
+    <t>FERNANDO JOSE GUEVARA CANCHILA</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
     <t>72285009</t>
   </si>
   <si>
     <t>CARLOS ANDRES ACOSTA TERAN</t>
-  </si>
-  <si>
-    <t>2508</t>
   </si>
   <si>
     <t>1048936436</t>
@@ -139,7 +145,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,22 +200,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +409,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +450,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60567624-96F8-3201-AEE0-B08FE53CB9DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7890F7F2-BFE0-517B-0DFE-F7533F1163F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,80 +872,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60642F20-014B-46F3-AC50-6CD87696E34F}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331DE1FE-6797-4B94-943A-9CCB8C33B4BF}">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -943,13 +955,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010916544</v>
       </c>
@@ -959,15 +971,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>290920</v>
+        <v>321288</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +987,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -995,7 +1007,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,16 +1027,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1034,20 +1046,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>63160</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1579000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1057,20 +1069,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>63160</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1579000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,20 +1092,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56940</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1103,70 +1115,93 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56940</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="21" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="19">
+        <v>30368</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="26">
         <v>56940</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G21" s="26">
         <v>1423500</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="32"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="34"/>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
